--- a/PhanCongDuAn/Capstone_React_Movie_Phân công dự án.xlsx
+++ b/PhanCongDuAn/Capstone_React_Movie_Phân công dự án.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cybersoft\Code\Lesson41\BC53_Capstone_ProjectMovie_Duy_Binh\PhanCongDuAn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A978351-E11F-4194-8B38-067C74D0ECC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Part</t>
   </si>
@@ -95,62 +104,199 @@
   <si>
     <t>Sign-up, sign-in, CRUD người dùng</t>
   </si>
+  <si>
+    <r>
+      <t>Trạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng thái</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Chư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a hoàn thành</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <r>
+      <t>Bổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sung</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Chỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> có Add Movie</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Chỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> có Sign-in, Sign-up</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Corbel"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Corbel"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Corbel"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Corbel"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="11">
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -160,6 +306,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -171,6 +318,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -179,6 +328,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -187,9 +339,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -204,70 +358,139 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -278,28 +501,22 @@
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -489,28 +706,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.75"/>
-    <col customWidth="1" min="2" max="2" width="4.13"/>
-    <col customWidth="1" min="3" max="3" width="18.63"/>
-    <col hidden="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="29.0"/>
-    <col customWidth="1" min="6" max="6" width="21.5"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" hidden="1"/>
+    <col min="5" max="5" width="29" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,355 +757,391 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="I1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3">
+      <c r="G2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="8">
-        <v>2.0</v>
+      <c r="B3" s="5">
+        <v>2</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4">
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="8">
-        <v>3.0</v>
+      <c r="B4" s="5">
+        <v>3</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5">
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="8">
-        <v>4.0</v>
+      <c r="B5" s="5">
+        <v>4</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6">
+      <c r="G5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="8">
-        <v>5.0</v>
+      <c r="B6" s="5">
+        <v>5</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7">
+      <c r="G6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8">
+      <c r="G7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9">
+      <c r="G8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="8">
-        <v>8.0</v>
+      <c r="B9" s="5">
+        <v>8</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10">
+      <c r="G9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11">
+      <c r="G10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13">
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14">
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16">
+      <c r="G15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
-      <c r="B16" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17">
+      <c r="G16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18">
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -889,16 +1150,23 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A15:A18"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH(("true"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH(("false"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I18" xr:uid="{C8FF2EC0-7981-433B-AA59-D56F91BEA1F6}">
+      <formula1>$K$1:$K$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>